--- a/00_Raw_Assets/quotes.xlsx
+++ b/00_Raw_Assets/quotes.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/reevesg70110_masseyhigh_school_nz/Documents/Documents/GitHub/91902_Quotes_DB/00_Raw_Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="13_ncr:40009_{9D8BBAB9-FE52-49AE-80E4-CBD616388BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C19D7EB-F78D-45CA-B23E-5464CDB71F58}"/>
+  <xr:revisionPtr revIDLastSave="359" documentId="13_ncr:40009_{9D8BBAB9-FE52-49AE-80E4-CBD616388BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{577816B5-2A4C-4C94-9034-1028C188FBB3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
     <sheet name="Quotes" sheetId="1" r:id="rId2"/>
-    <sheet name="Authors" sheetId="3" r:id="rId3"/>
+    <sheet name="Subject" sheetId="4" r:id="rId3"/>
+    <sheet name="Authors" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Authors!$A$1:$H$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Authors!$A$1:$H$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Quotes!$A$1:$G$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="322">
   <si>
     <t>misattributed-eleanor-roosevelt</t>
   </si>
@@ -1920,9 +1921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,9 +1961,9 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="str">
-        <f>VLOOKUP(A2,Authors!A2:B52,1)</f>
-        <v>Albert Einstein</v>
+      <c r="B2">
+        <f>VLOOKUP(A2,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>223</v>
@@ -1981,6 +1982,10 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
+      <c r="B3">
+        <f>VLOOKUP(A3,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
       <c r="C3" t="s">
         <v>224</v>
       </c>
@@ -1998,6 +2003,10 @@
       <c r="A4" t="s">
         <v>21</v>
       </c>
+      <c r="B4">
+        <f>VLOOKUP(A4,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
         <v>225</v>
       </c>
@@ -2015,6 +2024,10 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
+      <c r="B5">
+        <f>VLOOKUP(A5,Authors!$A$2:$B$52,2)</f>
+        <v>31</v>
+      </c>
       <c r="C5" t="s">
         <v>226</v>
       </c>
@@ -2032,6 +2045,10 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
+      <c r="B6">
+        <f>VLOOKUP(A6,Authors!$A$2:$B$52,2)</f>
+        <v>38</v>
+      </c>
       <c r="C6" t="s">
         <v>227</v>
       </c>
@@ -2049,6 +2066,10 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
+      <c r="B7">
+        <f>VLOOKUP(A7,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
       <c r="C7" t="s">
         <v>228</v>
       </c>
@@ -2066,6 +2087,10 @@
       <c r="A8" t="s">
         <v>150</v>
       </c>
+      <c r="B8">
+        <f>VLOOKUP(A8,Authors!$A$2:$B$52,2)</f>
+        <v>5</v>
+      </c>
       <c r="C8" t="s">
         <v>229</v>
       </c>
@@ -2083,6 +2108,10 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
+      <c r="B9">
+        <f>VLOOKUP(A9,Authors!$A$2:$B$52,2)</f>
+        <v>48</v>
+      </c>
       <c r="C9" t="s">
         <v>230</v>
       </c>
@@ -2100,6 +2129,10 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
+      <c r="B10">
+        <f>VLOOKUP(A10,Authors!$A$2:$B$52,2)</f>
+        <v>14</v>
+      </c>
       <c r="C10" t="s">
         <v>231</v>
       </c>
@@ -2117,6 +2150,10 @@
       <c r="A11" t="s">
         <v>27</v>
       </c>
+      <c r="B11">
+        <f>VLOOKUP(A11,Authors!$A$2:$B$52,2)</f>
+        <v>45</v>
+      </c>
       <c r="C11" t="s">
         <v>232</v>
       </c>
@@ -2134,6 +2171,10 @@
       <c r="A12" t="s">
         <v>24</v>
       </c>
+      <c r="B12">
+        <f>VLOOKUP(A12,Authors!$A$2:$B$52,2)</f>
+        <v>38</v>
+      </c>
       <c r="C12" t="s">
         <v>233</v>
       </c>
@@ -2151,6 +2192,10 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
+      <c r="B13">
+        <f>VLOOKUP(A13,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
       <c r="C13" t="s">
         <v>234</v>
       </c>
@@ -2168,6 +2213,10 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
+      <c r="B14">
+        <f>VLOOKUP(A14,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
       <c r="C14" t="s">
         <v>235</v>
       </c>
@@ -2182,6 +2231,10 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
+      <c r="B15">
+        <f>VLOOKUP(A15,Authors!$A$2:$B$52,2)</f>
+        <v>7</v>
+      </c>
       <c r="C15" t="s">
         <v>236</v>
       </c>
@@ -2193,6 +2246,10 @@
       <c r="A16" t="s">
         <v>29</v>
       </c>
+      <c r="B16">
+        <f>VLOOKUP(A16,Authors!$A$2:$B$52,2)</f>
+        <v>12</v>
+      </c>
       <c r="C16" t="s">
         <v>237</v>
       </c>
@@ -2204,6 +2261,10 @@
       <c r="A17" t="s">
         <v>30</v>
       </c>
+      <c r="B17">
+        <f>VLOOKUP(A17,Authors!$A$2:$B$52,2)</f>
+        <v>11</v>
+      </c>
       <c r="C17" t="s">
         <v>238</v>
       </c>
@@ -2218,6 +2279,10 @@
       <c r="A18" t="s">
         <v>31</v>
       </c>
+      <c r="B18">
+        <f>VLOOKUP(A18,Authors!$A$2:$B$52,2)</f>
+        <v>15</v>
+      </c>
       <c r="C18" t="s">
         <v>239</v>
       </c>
@@ -2235,6 +2300,10 @@
       <c r="A19" t="s">
         <v>149</v>
       </c>
+      <c r="B19">
+        <f>VLOOKUP(A19,Authors!$A$2:$B$52,2)</f>
+        <v>17</v>
+      </c>
       <c r="C19" t="s">
         <v>240</v>
       </c>
@@ -2252,6 +2321,10 @@
       <c r="A20" t="s">
         <v>32</v>
       </c>
+      <c r="B20">
+        <f>VLOOKUP(A20,Authors!$A$2:$B$52,2)</f>
+        <v>39</v>
+      </c>
       <c r="C20" t="s">
         <v>241</v>
       </c>
@@ -2266,6 +2339,10 @@
       <c r="A21" t="s">
         <v>33</v>
       </c>
+      <c r="B21">
+        <f>VLOOKUP(A21,Authors!$A$2:$B$52,2)</f>
+        <v>4</v>
+      </c>
       <c r="C21" t="s">
         <v>242</v>
       </c>
@@ -2286,6 +2363,10 @@
       <c r="A22" t="s">
         <v>34</v>
       </c>
+      <c r="B22">
+        <f>VLOOKUP(A22,Authors!$A$2:$B$52,2)</f>
+        <v>42</v>
+      </c>
       <c r="C22" t="s">
         <v>243</v>
       </c>
@@ -2300,6 +2381,10 @@
       <c r="A23" t="s">
         <v>35</v>
       </c>
+      <c r="B23">
+        <f>VLOOKUP(A23,Authors!$A$2:$B$52,2)</f>
+        <v>43</v>
+      </c>
       <c r="C23" t="s">
         <v>244</v>
       </c>
@@ -2311,6 +2396,10 @@
       <c r="A24" t="s">
         <v>36</v>
       </c>
+      <c r="B24">
+        <f>VLOOKUP(A24,Authors!$A$2:$B$52,2)</f>
+        <v>41</v>
+      </c>
       <c r="C24" t="s">
         <v>245</v>
       </c>
@@ -2331,6 +2420,10 @@
       <c r="A25" t="s">
         <v>37</v>
       </c>
+      <c r="B25">
+        <f>VLOOKUP(A25,Authors!$A$2:$B$52,2)</f>
+        <v>18</v>
+      </c>
       <c r="C25" t="s">
         <v>246</v>
       </c>
@@ -2345,6 +2438,10 @@
       <c r="A26" t="s">
         <v>38</v>
       </c>
+      <c r="B26">
+        <f>VLOOKUP(A26,Authors!$A$2:$B$52,2)</f>
+        <v>32</v>
+      </c>
       <c r="C26" t="s">
         <v>247</v>
       </c>
@@ -2356,6 +2453,10 @@
       <c r="A27" t="s">
         <v>29</v>
       </c>
+      <c r="B27">
+        <f>VLOOKUP(A27,Authors!$A$2:$B$52,2)</f>
+        <v>12</v>
+      </c>
       <c r="C27" t="s">
         <v>248</v>
       </c>
@@ -2373,6 +2474,10 @@
       <c r="A28" t="s">
         <v>21</v>
       </c>
+      <c r="B28">
+        <f>VLOOKUP(A28,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
       <c r="C28" t="s">
         <v>249</v>
       </c>
@@ -2387,6 +2492,10 @@
       <c r="A29" t="s">
         <v>22</v>
       </c>
+      <c r="B29">
+        <f>VLOOKUP(A29,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
       <c r="C29" t="s">
         <v>250</v>
       </c>
@@ -2404,6 +2513,10 @@
       <c r="A30" t="s">
         <v>21</v>
       </c>
+      <c r="B30">
+        <f>VLOOKUP(A30,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
       <c r="C30" t="s">
         <v>251</v>
       </c>
@@ -2415,6 +2528,10 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
+      <c r="B31">
+        <f>VLOOKUP(A31,Authors!$A$2:$B$52,2)</f>
+        <v>7</v>
+      </c>
       <c r="C31" t="s">
         <v>252</v>
       </c>
@@ -2426,6 +2543,10 @@
       <c r="A32" t="s">
         <v>29</v>
       </c>
+      <c r="B32">
+        <f>VLOOKUP(A32,Authors!$A$2:$B$52,2)</f>
+        <v>12</v>
+      </c>
       <c r="C32" t="s">
         <v>253</v>
       </c>
@@ -2443,6 +2564,10 @@
       <c r="A33" t="s">
         <v>22</v>
       </c>
+      <c r="B33">
+        <f>VLOOKUP(A33,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
       <c r="C33" t="s">
         <v>68</v>
       </c>
@@ -2457,6 +2582,10 @@
       <c r="A34" t="s">
         <v>28</v>
       </c>
+      <c r="B34">
+        <f>VLOOKUP(A34,Authors!$A$2:$B$52,2)</f>
+        <v>7</v>
+      </c>
       <c r="C34" t="s">
         <v>254</v>
       </c>
@@ -2468,6 +2597,10 @@
       <c r="A35" t="s">
         <v>36</v>
       </c>
+      <c r="B35">
+        <f>VLOOKUP(A35,Authors!$A$2:$B$52,2)</f>
+        <v>41</v>
+      </c>
       <c r="C35" t="s">
         <v>255</v>
       </c>
@@ -2485,6 +2618,10 @@
       <c r="A36" t="s">
         <v>22</v>
       </c>
+      <c r="B36">
+        <f>VLOOKUP(A36,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
       <c r="C36" t="s">
         <v>256</v>
       </c>
@@ -2499,6 +2636,10 @@
       <c r="A37" t="s">
         <v>39</v>
       </c>
+      <c r="B37">
+        <f>VLOOKUP(A37,Authors!$A$2:$B$52,2)</f>
+        <v>10</v>
+      </c>
       <c r="C37" t="s">
         <v>257</v>
       </c>
@@ -2516,6 +2657,10 @@
       <c r="A38" t="s">
         <v>40</v>
       </c>
+      <c r="B38">
+        <f>VLOOKUP(A38,Authors!$A$2:$B$52,2)</f>
+        <v>50</v>
+      </c>
       <c r="C38" t="s">
         <v>258</v>
       </c>
@@ -2530,6 +2675,10 @@
       <c r="A39" t="s">
         <v>21</v>
       </c>
+      <c r="B39">
+        <f>VLOOKUP(A39,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
       <c r="C39" t="s">
         <v>259</v>
       </c>
@@ -2547,6 +2696,10 @@
       <c r="A40" t="s">
         <v>41</v>
       </c>
+      <c r="B40">
+        <f>VLOOKUP(A40,Authors!$A$2:$B$52,2)</f>
+        <v>35</v>
+      </c>
       <c r="C40" t="s">
         <v>260</v>
       </c>
@@ -2561,6 +2714,10 @@
       <c r="A41" t="s">
         <v>42</v>
       </c>
+      <c r="B41">
+        <f>VLOOKUP(A41,Authors!$A$2:$B$52,2)</f>
+        <v>21</v>
+      </c>
       <c r="C41" t="s">
         <v>261</v>
       </c>
@@ -2572,6 +2729,10 @@
       <c r="A42" t="s">
         <v>43</v>
       </c>
+      <c r="B42">
+        <f>VLOOKUP(A42,Authors!$A$2:$B$52,2)</f>
+        <v>22</v>
+      </c>
       <c r="C42" t="s">
         <v>262</v>
       </c>
@@ -2589,6 +2750,10 @@
       <c r="A43" t="s">
         <v>44</v>
       </c>
+      <c r="B43">
+        <f>VLOOKUP(A43,Authors!$A$2:$B$52,2)</f>
+        <v>8</v>
+      </c>
       <c r="C43" t="s">
         <v>263</v>
       </c>
@@ -2606,6 +2771,10 @@
       <c r="A44" t="s">
         <v>24</v>
       </c>
+      <c r="B44">
+        <f>VLOOKUP(A44,Authors!$A$2:$B$52,2)</f>
+        <v>38</v>
+      </c>
       <c r="C44" t="s">
         <v>264</v>
       </c>
@@ -2623,6 +2792,10 @@
       <c r="A45" t="s">
         <v>24</v>
       </c>
+      <c r="B45">
+        <f>VLOOKUP(A45,Authors!$A$2:$B$52,2)</f>
+        <v>38</v>
+      </c>
       <c r="C45" t="s">
         <v>265</v>
       </c>
@@ -2637,6 +2810,10 @@
       <c r="A46" t="s">
         <v>21</v>
       </c>
+      <c r="B46">
+        <f>VLOOKUP(A46,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
       <c r="C46" t="s">
         <v>266</v>
       </c>
@@ -2648,6 +2825,10 @@
       <c r="A47" t="s">
         <v>24</v>
       </c>
+      <c r="B47">
+        <f>VLOOKUP(A47,Authors!$A$2:$B$52,2)</f>
+        <v>38</v>
+      </c>
       <c r="C47" t="s">
         <v>267</v>
       </c>
@@ -2659,6 +2840,10 @@
       <c r="A48" t="s">
         <v>24</v>
       </c>
+      <c r="B48">
+        <f>VLOOKUP(A48,Authors!$A$2:$B$52,2)</f>
+        <v>38</v>
+      </c>
       <c r="C48" t="s">
         <v>268</v>
       </c>
@@ -2676,6 +2861,10 @@
       <c r="A49" t="s">
         <v>45</v>
       </c>
+      <c r="B49">
+        <f>VLOOKUP(A49,Authors!$A$2:$B$52,2)</f>
+        <v>40</v>
+      </c>
       <c r="C49" t="s">
         <v>269</v>
       </c>
@@ -2690,6 +2879,10 @@
       <c r="A50" t="s">
         <v>22</v>
       </c>
+      <c r="B50">
+        <f>VLOOKUP(A50,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
       <c r="C50" t="s">
         <v>270</v>
       </c>
@@ -2704,6 +2897,10 @@
       <c r="A51" t="s">
         <v>46</v>
       </c>
+      <c r="B51">
+        <f>VLOOKUP(A51,Authors!$A$2:$B$52,2)</f>
+        <v>30</v>
+      </c>
       <c r="C51" t="s">
         <v>271</v>
       </c>
@@ -2715,6 +2912,10 @@
       <c r="A52" t="s">
         <v>23</v>
       </c>
+      <c r="B52">
+        <f>VLOOKUP(A52,Authors!$A$2:$B$52,2)</f>
+        <v>31</v>
+      </c>
       <c r="C52" t="s">
         <v>272</v>
       </c>
@@ -2729,6 +2930,10 @@
       <c r="A53" t="s">
         <v>26</v>
       </c>
+      <c r="B53">
+        <f>VLOOKUP(A53,Authors!$A$2:$B$52,2)</f>
+        <v>14</v>
+      </c>
       <c r="C53" t="s">
         <v>273</v>
       </c>
@@ -2746,6 +2951,10 @@
       <c r="A54" t="s">
         <v>24</v>
       </c>
+      <c r="B54">
+        <f>VLOOKUP(A54,Authors!$A$2:$B$52,2)</f>
+        <v>38</v>
+      </c>
       <c r="C54" t="s">
         <v>274</v>
       </c>
@@ -2766,6 +2975,10 @@
       <c r="A55" t="s">
         <v>21</v>
       </c>
+      <c r="B55">
+        <f>VLOOKUP(A55,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
       <c r="C55" t="s">
         <v>275</v>
       </c>
@@ -2777,6 +2990,10 @@
       <c r="A56" t="s">
         <v>47</v>
       </c>
+      <c r="B56">
+        <f>VLOOKUP(A56,Authors!$A$2:$B$52,2)</f>
+        <v>24</v>
+      </c>
       <c r="C56" t="s">
         <v>276</v>
       </c>
@@ -2791,6 +3008,10 @@
       <c r="A57" t="s">
         <v>48</v>
       </c>
+      <c r="B57">
+        <f>VLOOKUP(A57,Authors!$A$2:$B$52,2)</f>
+        <v>2</v>
+      </c>
       <c r="C57" t="s">
         <v>277</v>
       </c>
@@ -2808,6 +3029,10 @@
       <c r="A58" t="s">
         <v>49</v>
       </c>
+      <c r="B58">
+        <f>VLOOKUP(A58,Authors!$A$2:$B$52,2)</f>
+        <v>44</v>
+      </c>
       <c r="C58" t="s">
         <v>278</v>
       </c>
@@ -2825,6 +3050,10 @@
       <c r="A59" t="s">
         <v>50</v>
       </c>
+      <c r="B59">
+        <f>VLOOKUP(A59,Authors!$A$2:$B$52,2)</f>
+        <v>16</v>
+      </c>
       <c r="C59" t="s">
         <v>279</v>
       </c>
@@ -2839,6 +3068,10 @@
       <c r="A60" t="s">
         <v>51</v>
       </c>
+      <c r="B60">
+        <f>VLOOKUP(A60,Authors!$A$2:$B$52,2)</f>
+        <v>25</v>
+      </c>
       <c r="C60" t="s">
         <v>280</v>
       </c>
@@ -2850,6 +3083,10 @@
       <c r="A61" t="s">
         <v>52</v>
       </c>
+      <c r="B61">
+        <f>VLOOKUP(A61,Authors!$A$2:$B$52,2)</f>
+        <v>19</v>
+      </c>
       <c r="C61" t="s">
         <v>281</v>
       </c>
@@ -2867,6 +3104,10 @@
       <c r="A62" t="s">
         <v>53</v>
       </c>
+      <c r="B62">
+        <f>VLOOKUP(A62,Authors!$A$2:$B$52,2)</f>
+        <v>9</v>
+      </c>
       <c r="C62" t="s">
         <v>282</v>
       </c>
@@ -2878,6 +3119,10 @@
       <c r="A63" t="s">
         <v>54</v>
       </c>
+      <c r="B63">
+        <f>VLOOKUP(A63,Authors!$A$2:$B$52,2)</f>
+        <v>46</v>
+      </c>
       <c r="C63" t="s">
         <v>283</v>
       </c>
@@ -2892,6 +3137,10 @@
       <c r="A64" t="s">
         <v>54</v>
       </c>
+      <c r="B64">
+        <f>VLOOKUP(A64,Authors!$A$2:$B$52,2)</f>
+        <v>46</v>
+      </c>
       <c r="C64" t="s">
         <v>284</v>
       </c>
@@ -2903,6 +3152,10 @@
       <c r="A65" t="s">
         <v>44</v>
       </c>
+      <c r="B65">
+        <f>VLOOKUP(A65,Authors!$A$2:$B$52,2)</f>
+        <v>8</v>
+      </c>
       <c r="C65" t="s">
         <v>285</v>
       </c>
@@ -2914,6 +3167,10 @@
       <c r="A66" t="s">
         <v>55</v>
       </c>
+      <c r="B66">
+        <f>VLOOKUP(A66,Authors!$A$2:$B$52,2)</f>
+        <v>29</v>
+      </c>
       <c r="C66" t="s">
         <v>286</v>
       </c>
@@ -2931,6 +3188,10 @@
       <c r="A67" t="s">
         <v>22</v>
       </c>
+      <c r="B67">
+        <f>VLOOKUP(A67,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
       <c r="C67" t="s">
         <v>287</v>
       </c>
@@ -2948,6 +3209,10 @@
       <c r="A68" t="s">
         <v>50</v>
       </c>
+      <c r="B68">
+        <f>VLOOKUP(A68,Authors!$A$2:$B$52,2)</f>
+        <v>16</v>
+      </c>
       <c r="C68" t="s">
         <v>288</v>
       </c>
@@ -2962,6 +3227,10 @@
       <c r="A69" t="s">
         <v>35</v>
       </c>
+      <c r="B69">
+        <f>VLOOKUP(A69,Authors!$A$2:$B$52,2)</f>
+        <v>43</v>
+      </c>
       <c r="C69" t="s">
         <v>289</v>
       </c>
@@ -2976,6 +3245,10 @@
       <c r="A70" t="s">
         <v>32</v>
       </c>
+      <c r="B70">
+        <f>VLOOKUP(A70,Authors!$A$2:$B$52,2)</f>
+        <v>39</v>
+      </c>
       <c r="C70" t="s">
         <v>290</v>
       </c>
@@ -2987,6 +3260,10 @@
       <c r="A71" t="s">
         <v>29</v>
       </c>
+      <c r="B71">
+        <f>VLOOKUP(A71,Authors!$A$2:$B$52,2)</f>
+        <v>12</v>
+      </c>
       <c r="C71" t="s">
         <v>71</v>
       </c>
@@ -2998,6 +3275,10 @@
       <c r="A72" t="s">
         <v>56</v>
       </c>
+      <c r="B72">
+        <f>VLOOKUP(A72,Authors!$A$2:$B$52,2)</f>
+        <v>3</v>
+      </c>
       <c r="C72" t="s">
         <v>291</v>
       </c>
@@ -3012,6 +3293,10 @@
       <c r="A73" t="s">
         <v>53</v>
       </c>
+      <c r="B73">
+        <f>VLOOKUP(A73,Authors!$A$2:$B$52,2)</f>
+        <v>9</v>
+      </c>
       <c r="C73" t="s">
         <v>292</v>
       </c>
@@ -3023,6 +3308,10 @@
       <c r="A74" t="s">
         <v>57</v>
       </c>
+      <c r="B74">
+        <f>VLOOKUP(A74,Authors!$A$2:$B$52,2)</f>
+        <v>47</v>
+      </c>
       <c r="C74" t="s">
         <v>293</v>
       </c>
@@ -3040,6 +3329,10 @@
       <c r="A75" t="s">
         <v>29</v>
       </c>
+      <c r="B75">
+        <f>VLOOKUP(A75,Authors!$A$2:$B$52,2)</f>
+        <v>12</v>
+      </c>
       <c r="C75" t="s">
         <v>69</v>
       </c>
@@ -3054,6 +3347,10 @@
       <c r="A76" t="s">
         <v>58</v>
       </c>
+      <c r="B76">
+        <f>VLOOKUP(A76,Authors!$A$2:$B$52,2)</f>
+        <v>26</v>
+      </c>
       <c r="C76" t="s">
         <v>294</v>
       </c>
@@ -3068,6 +3365,10 @@
       <c r="A77" t="s">
         <v>59</v>
       </c>
+      <c r="B77">
+        <f>VLOOKUP(A77,Authors!$A$2:$B$52,2)</f>
+        <v>20</v>
+      </c>
       <c r="C77" t="s">
         <v>295</v>
       </c>
@@ -3079,6 +3380,10 @@
       <c r="A78" t="s">
         <v>60</v>
       </c>
+      <c r="B78">
+        <f>VLOOKUP(A78,Authors!$A$2:$B$52,2)</f>
+        <v>34</v>
+      </c>
       <c r="C78" t="s">
         <v>296</v>
       </c>
@@ -3096,6 +3401,10 @@
       <c r="A79" t="s">
         <v>61</v>
       </c>
+      <c r="B79">
+        <f>VLOOKUP(A79,Authors!$A$2:$B$52,2)</f>
+        <v>49</v>
+      </c>
       <c r="C79" t="s">
         <v>70</v>
       </c>
@@ -3110,6 +3419,10 @@
       <c r="A80" t="s">
         <v>62</v>
       </c>
+      <c r="B80">
+        <f>VLOOKUP(A80,Authors!$A$2:$B$52,2)</f>
+        <v>6</v>
+      </c>
       <c r="C80" t="s">
         <v>297</v>
       </c>
@@ -3121,6 +3434,10 @@
       <c r="A81" t="s">
         <v>32</v>
       </c>
+      <c r="B81">
+        <f>VLOOKUP(A81,Authors!$A$2:$B$52,2)</f>
+        <v>39</v>
+      </c>
       <c r="C81" t="s">
         <v>298</v>
       </c>
@@ -3138,6 +3455,10 @@
       <c r="A82" t="s">
         <v>21</v>
       </c>
+      <c r="B82">
+        <f>VLOOKUP(A82,Authors!$A$2:$B$52,2)</f>
+        <v>1</v>
+      </c>
       <c r="C82" t="s">
         <v>299</v>
       </c>
@@ -3149,6 +3470,10 @@
       <c r="A83" t="s">
         <v>23</v>
       </c>
+      <c r="B83">
+        <f>VLOOKUP(A83,Authors!$A$2:$B$52,2)</f>
+        <v>31</v>
+      </c>
       <c r="C83" t="s">
         <v>300</v>
       </c>
@@ -3166,6 +3491,10 @@
       <c r="A84" t="s">
         <v>22</v>
       </c>
+      <c r="B84">
+        <f>VLOOKUP(A84,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
       <c r="C84" t="s">
         <v>301</v>
       </c>
@@ -3177,6 +3506,10 @@
       <c r="A85" t="s">
         <v>23</v>
       </c>
+      <c r="B85">
+        <f>VLOOKUP(A85,Authors!$A$2:$B$52,2)</f>
+        <v>31</v>
+      </c>
       <c r="C85" t="s">
         <v>302</v>
       </c>
@@ -3194,6 +3527,10 @@
       <c r="A86" t="s">
         <v>23</v>
       </c>
+      <c r="B86">
+        <f>VLOOKUP(A86,Authors!$A$2:$B$52,2)</f>
+        <v>31</v>
+      </c>
       <c r="C86" t="s">
         <v>303</v>
       </c>
@@ -3208,6 +3545,10 @@
       <c r="A87" t="s">
         <v>44</v>
       </c>
+      <c r="B87">
+        <f>VLOOKUP(A87,Authors!$A$2:$B$52,2)</f>
+        <v>8</v>
+      </c>
       <c r="C87" t="s">
         <v>304</v>
       </c>
@@ -3225,6 +3566,10 @@
       <c r="A88" t="s">
         <v>44</v>
       </c>
+      <c r="B88">
+        <f>VLOOKUP(A88,Authors!$A$2:$B$52,2)</f>
+        <v>8</v>
+      </c>
       <c r="C88" t="s">
         <v>305</v>
       </c>
@@ -3236,6 +3581,10 @@
       <c r="A89" t="s">
         <v>32</v>
       </c>
+      <c r="B89">
+        <f>VLOOKUP(A89,Authors!$A$2:$B$52,2)</f>
+        <v>39</v>
+      </c>
       <c r="C89" t="s">
         <v>306</v>
       </c>
@@ -3250,6 +3599,10 @@
       <c r="A90" t="s">
         <v>32</v>
       </c>
+      <c r="B90">
+        <f>VLOOKUP(A90,Authors!$A$2:$B$52,2)</f>
+        <v>39</v>
+      </c>
       <c r="C90" t="s">
         <v>307</v>
       </c>
@@ -3264,6 +3617,10 @@
       <c r="A91" t="s">
         <v>44</v>
       </c>
+      <c r="B91">
+        <f>VLOOKUP(A91,Authors!$A$2:$B$52,2)</f>
+        <v>8</v>
+      </c>
       <c r="C91" t="s">
         <v>308</v>
       </c>
@@ -3281,6 +3638,10 @@
       <c r="A92" t="s">
         <v>22</v>
       </c>
+      <c r="B92">
+        <f>VLOOKUP(A92,Authors!$A$2:$B$52,2)</f>
+        <v>27</v>
+      </c>
       <c r="C92" t="s">
         <v>309</v>
       </c>
@@ -3292,6 +3653,10 @@
       <c r="A93" t="s">
         <v>63</v>
       </c>
+      <c r="B93">
+        <f>VLOOKUP(A93,Authors!$A$2:$B$52,2)</f>
+        <v>33</v>
+      </c>
       <c r="C93" t="s">
         <v>310</v>
       </c>
@@ -3306,6 +3671,10 @@
       <c r="A94" t="s">
         <v>64</v>
       </c>
+      <c r="B94">
+        <f>VLOOKUP(A94,Authors!$A$2:$B$52,2)</f>
+        <v>28</v>
+      </c>
       <c r="C94" t="s">
         <v>311</v>
       </c>
@@ -3320,6 +3689,10 @@
       <c r="A95" t="s">
         <v>65</v>
       </c>
+      <c r="B95">
+        <f>VLOOKUP(A95,Authors!$A$2:$B$52,2)</f>
+        <v>13</v>
+      </c>
       <c r="C95" t="s">
         <v>312</v>
       </c>
@@ -3331,6 +3704,10 @@
       <c r="A96" t="s">
         <v>66</v>
       </c>
+      <c r="B96">
+        <f>VLOOKUP(A96,Authors!$A$2:$B$52,2)</f>
+        <v>36</v>
+      </c>
       <c r="C96" t="s">
         <v>313</v>
       </c>
@@ -3342,6 +3719,10 @@
       <c r="A97" t="s">
         <v>67</v>
       </c>
+      <c r="B97">
+        <f>VLOOKUP(A97,Authors!$A$2:$B$52,2)</f>
+        <v>23</v>
+      </c>
       <c r="C97" t="s">
         <v>314</v>
       </c>
@@ -3356,6 +3737,10 @@
       <c r="A98" t="s">
         <v>72</v>
       </c>
+      <c r="B98">
+        <f>VLOOKUP(A98,Authors!$A$2:$B$52,2)</f>
+        <v>37</v>
+      </c>
       <c r="C98" t="s">
         <v>315</v>
       </c>
@@ -3373,6 +3758,10 @@
       <c r="A99" t="s">
         <v>32</v>
       </c>
+      <c r="B99">
+        <f>VLOOKUP(A99,Authors!$A$2:$B$52,2)</f>
+        <v>39</v>
+      </c>
       <c r="C99" t="s">
         <v>316</v>
       </c>
@@ -3384,6 +3773,10 @@
       <c r="A100" t="s">
         <v>29</v>
       </c>
+      <c r="B100">
+        <f>VLOOKUP(A100,Authors!$A$2:$B$52,2)</f>
+        <v>12</v>
+      </c>
       <c r="C100" t="s">
         <v>317</v>
       </c>
@@ -3395,6 +3788,10 @@
       <c r="A101" t="s">
         <v>43</v>
       </c>
+      <c r="B101">
+        <f>VLOOKUP(A101,Authors!$A$2:$B$52,2)</f>
+        <v>22</v>
+      </c>
       <c r="C101" t="s">
         <v>318</v>
       </c>
@@ -3409,6 +3806,10 @@
       <c r="A102" t="s">
         <v>206</v>
       </c>
+      <c r="B102">
+        <f>VLOOKUP(A102,Authors!$A$2:$B$52,2)</f>
+        <v>47</v>
+      </c>
       <c r="C102" t="s">
         <v>205</v>
       </c>
@@ -3425,6 +3826,10 @@
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>206</v>
+      </c>
+      <c r="B103">
+        <f>VLOOKUP(A103,Authors!$A$2:$B$52,2)</f>
+        <v>47</v>
       </c>
       <c r="C103" t="s">
         <v>209</v>
@@ -3445,10 +3850,864 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17BC50D-CAED-482E-B01F-8152ED4C5D52}">
+  <dimension ref="A1:C103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>319</v>
+      </c>
+      <c r="B50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
